--- a/data/trans_dic/P16A09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,35</t>
+          <t>1,16; 4,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,83</t>
+          <t>1,2; 5,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,9</t>
+          <t>0,17; 2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,1</t>
+          <t>0,37; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,37</t>
+          <t>1,79; 6,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,36</t>
+          <t>0,41; 3,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,01</t>
+          <t>0,32; 3,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,75</t>
+          <t>1,82; 4,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,31</t>
+          <t>1,78; 4,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,47</t>
+          <t>1,11; 3,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,87</t>
+          <t>0,4; 1,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,67</t>
+          <t>1,2; 2,68</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,72</t>
+          <t>0,47; 2,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,28</t>
+          <t>0,74; 3,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,95</t>
+          <t>0,54; 2,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,63</t>
+          <t>0,96; 4,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,56</t>
+          <t>1,19; 4,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,65</t>
+          <t>0,3; 3,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,77</t>
+          <t>2,67; 5,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,24</t>
+          <t>0,94; 3,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,1</t>
+          <t>1,22; 3,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,41</t>
+          <t>0,15; 1,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,65</t>
+          <t>1,78; 3,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,4</t>
+          <t>1,48; 4,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,93</t>
+          <t>1,16; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,88</t>
+          <t>0,18; 2,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,03</t>
+          <t>0,44; 3,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 11,37</t>
+          <t>3,23; 11,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,66</t>
+          <t>1,99; 7,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 8,74</t>
+          <t>1,25; 8,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,75</t>
+          <t>5,03; 14,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,5</t>
+          <t>2,43; 5,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,21</t>
+          <t>1,78; 4,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,9</t>
+          <t>0,78; 3,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,7</t>
+          <t>1,23; 4,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,58</t>
+          <t>3,29; 5,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,36</t>
+          <t>1,49; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,1</t>
+          <t>1,34; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,67</t>
+          <t>1,81; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,58</t>
+          <t>2,66; 5,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,38</t>
+          <t>1,9; 4,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,99</t>
+          <t>1,06; 3,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,56</t>
+          <t>1,06; 3,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,11</t>
+          <t>3,44; 5,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,34</t>
+          <t>1,98; 3,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,66</t>
+          <t>1,46; 2,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,31</t>
+          <t>1,8; 3,26</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,66</t>
+          <t>1,5; 4,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,14</t>
+          <t>1,27; 4,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,6</t>
+          <t>1,37; 3,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,85</t>
+          <t>1,44; 3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,22</t>
+          <t>3,5; 7,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,8</t>
+          <t>5,29; 9,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,79</t>
+          <t>4,2; 7,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,45</t>
+          <t>5,09; 9,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,79</t>
+          <t>2,98; 5,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,38</t>
+          <t>3,86; 6,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,5</t>
+          <t>3,18; 5,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,67</t>
+          <t>4,11; 6,82</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,21</t>
+          <t>5,44; 8,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,78</t>
+          <t>7,92; 11,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,13</t>
+          <t>4,17; 7,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,98</t>
+          <t>6,19; 8,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,57</t>
+          <t>4,39; 6,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,51</t>
+          <t>6,48; 9,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,62</t>
+          <t>3,32; 5,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 6,8</t>
+          <t>4,54; 6,84</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,61</t>
+          <t>2,38; 3,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,69</t>
+          <t>1,61; 2,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,76</t>
+          <t>0,98; 1,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,23</t>
+          <t>1,3; 2,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 5,91</t>
+          <t>4,38; 5,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,72</t>
+          <t>5,02; 6,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,45</t>
+          <t>3,08; 4,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,87</t>
+          <t>4,15; 5,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 4,57</t>
+          <t>3,53; 4,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,49</t>
+          <t>3,51; 4,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,0</t>
+          <t>2,19; 3,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,95</t>
+          <t>2,93; 3,96</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11454</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11305</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2952</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10794</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12912</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22249</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15721</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17433</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5516; 22414</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5234; 22041</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>732; 9089</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1857; 9389</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5478; 19342</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1294; 11057</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1100; 10472</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8162; 19880</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13870; 33943</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8375; 27066</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3088; 14199</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11443; 25513</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7296</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6049</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8541</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15401</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13023</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15550</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21450</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1739; 9917</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3089; 15457</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2464; 12205</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3562; 17738</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3981; 15973</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1129; 11615</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10182; 22463</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6913; 23107</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9156; 24395</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1149; 10937</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14879; 30426</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14863</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13809</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10234</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11397</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10370</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6231</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13872</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26261</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24179</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10559</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24106</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8037; 23890</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7235; 24073</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>939; 11058</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2916; 20774</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5417; 19746</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5136; 18935</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2075; 14429</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8394; 23450</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17265; 37307</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15745; 38982</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5352; 21450</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10250; 39531</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53627</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27020</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23877</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26860</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28338</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22900</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15219</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24845</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81965</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49920</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>39096</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51704</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40694; 67623</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17191; 38980</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15430; 35606</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18707; 37548</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19000; 39840</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14555; 33722</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8794; 25783</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10347; 34418</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67130; 100496</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38034; 66467</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28846; 54489</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36128; 65524</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9980</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11899</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14037</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11147</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29184</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>52499</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42822</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58530</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39165</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>64398</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>56860</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>69677</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5256; 16680</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6501; 20411</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8505; 22185</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6813; 17613</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19929; 40994</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40058; 68203</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31036; 57517</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42736; 78426</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27407; 52670</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>48882; 80408</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43189; 72483</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53962; 89503</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>83277</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>108080</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59596</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>56457</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>84163</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>108080</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>59596</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>56457</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4476</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1925</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2019</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4080</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>67937; 104530</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>87523; 128474</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>45112; 77922</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>47086; 67150</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67911; 102860</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>88829; 131025</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45502; 76136</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>45402; 68419</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>95292</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>71329</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>58811</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>171532</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>206519</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>132468</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>182017</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>266824</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>277847</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>177663</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>240829</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>77902; 115691</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>54881; 91214</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>33092; 59500</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>43949; 74937</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>148105; 198511</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>177579; 234936</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>108733; 157934</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>148099; 207016</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>234446; 299592</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>244115; 314381</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>151249; 207597</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>203662; 275006</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
